--- a/[Data] WES_PASS/Patient-SP28-indels.xlsx
+++ b/[Data] WES_PASS/Patient-SP28-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="295">
   <si>
     <t>NG.8132_R11M_lib74150_3786_5</t>
   </si>
@@ -43,553 +43,862 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_7826653</t>
   </si>
   <si>
-    <t>CAMTA1</t>
+    <t>NBPF10 intron_variant:NBPF10 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_145354129   </t>
   </si>
   <si>
     <t>chr1_9770690</t>
   </si>
   <si>
-    <t>PIK3CD</t>
+    <t>OR2T32P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:OR2L13 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_248247638   </t>
   </si>
   <si>
     <t>chr1_16890486</t>
   </si>
   <si>
-    <t>NBPF1</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_125466156   </t>
   </si>
   <si>
     <t>chr1_17091039</t>
   </si>
   <si>
-    <t>MST1L:CROCC</t>
+    <t xml:space="preserve">chr14_19814641   </t>
   </si>
   <si>
     <t>chr1_46497340</t>
   </si>
   <si>
-    <t>MAST2</t>
+    <t>L3MBTL4 intron_variant:RP11-793A3.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_5958176   </t>
   </si>
   <si>
     <t>chr1_77334276</t>
   </si>
   <si>
-    <t>ST6GALNAC5</t>
+    <t>CXorf56 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_118679330   </t>
   </si>
   <si>
     <t>chr1_92498096</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>ALB intron_variant:ALB intron_variant&amp;non_coding_transcript_variant:ALB intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_74274864   </t>
   </si>
   <si>
     <t>chr1_167051418</t>
   </si>
   <si>
-    <t>GPA33</t>
+    <t xml:space="preserve">chr16_33410921   </t>
   </si>
   <si>
     <t>chr1_168546068</t>
   </si>
   <si>
+    <t xml:space="preserve">chr6_32497815   </t>
+  </si>
+  <si>
     <t>chr1_229156950</t>
   </si>
   <si>
+    <t xml:space="preserve">chr11_58861353   </t>
+  </si>
+  <si>
     <t>chr1_244598940</t>
   </si>
   <si>
+    <t>RPA1 intron_variant&amp;non_coding_transcript_variant:RPA1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_1779212   </t>
+  </si>
+  <si>
     <t>chr2_43451739</t>
   </si>
   <si>
-    <t>THADA:ZFP36L2</t>
+    <t>PCDHB11 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_140580834   </t>
   </si>
   <si>
     <t>chr2_65893962</t>
   </si>
   <si>
-    <t>AC074391.1:KRT18P33</t>
+    <t>LAPTM4B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_98828550   </t>
   </si>
   <si>
     <t>chr2_65893997</t>
   </si>
   <si>
+    <t>PTPN14 intron_variant&amp;non_coding_transcript_variant:PTPN14 intron_variant:RP11-365D23.4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_214656697   </t>
+  </si>
+  <si>
     <t>chr2_84777274</t>
   </si>
   <si>
-    <t>DNAH6</t>
+    <t>CTD-2008A1.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_45123962   </t>
   </si>
   <si>
     <t>chr2_131935207</t>
   </si>
   <si>
-    <t>NEK2P4:PLEKHB2</t>
+    <t xml:space="preserve">chr13_100635007   </t>
   </si>
   <si>
     <t>chr2_189860975</t>
   </si>
   <si>
-    <t>COL3A1</t>
+    <t>PARP4 intron_variant:TPTE2P6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_25016940   </t>
   </si>
   <si>
     <t>chr3_12829863</t>
   </si>
   <si>
-    <t>KRT18P17</t>
+    <t xml:space="preserve">chr9_68415429   </t>
   </si>
   <si>
     <t>chr3_59025517</t>
   </si>
   <si>
-    <t>C3orf67</t>
+    <t xml:space="preserve">chr1_248813168   </t>
   </si>
   <si>
     <t>chr3_100059702</t>
   </si>
   <si>
-    <t>NIT2</t>
+    <t xml:space="preserve">chr11_12316377   </t>
   </si>
   <si>
     <t>chr3_126135070</t>
   </si>
   <si>
-    <t>CCDC37</t>
+    <t xml:space="preserve">chr2_90122277   </t>
   </si>
   <si>
     <t>chr3_137964255</t>
   </si>
   <si>
-    <t>ARMC8</t>
+    <t>PTPRK intron_variant&amp;non_coding_transcript_variant:PTPRK intron_variant:PTPRK intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_128561076   </t>
+  </si>
+  <si>
+    <t>PTPRK:PTPRK:PTPRK</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;non_coding_transcript_variant:intron_variant:intron_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr3_194712115</t>
   </si>
   <si>
+    <t xml:space="preserve">chr18_14644789   </t>
+  </si>
+  <si>
     <t>chr4_74274864</t>
   </si>
   <si>
-    <t>ALB</t>
+    <t>FAM71D intron_variant&amp;NMD_transcript_variant:FAM71D intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_67691342   </t>
   </si>
   <si>
     <t>chr4_184619035</t>
   </si>
   <si>
-    <t>TRAPPC11</t>
+    <t xml:space="preserve">chr1_92498096   </t>
   </si>
   <si>
     <t>chr5_979412</t>
   </si>
   <si>
+    <t>IFI16 intron_variant:IFI16 synonymous_variant:IFI16 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:IFI16 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_158986376   </t>
+  </si>
+  <si>
     <t>chr5_5955251</t>
   </si>
   <si>
+    <t>DNAH14 intron_variant&amp;NMD_transcript_variant:DNAH14 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_225460644   </t>
+  </si>
+  <si>
     <t>chr5_64466697</t>
   </si>
   <si>
-    <t>ADAMTS6</t>
+    <t>WDPCP intron_variant:WDPCP intron_variant&amp;non_coding_transcript_variant:WDPCP intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_63609273   </t>
   </si>
   <si>
     <t>chr5_137474284</t>
   </si>
   <si>
-    <t>NME5</t>
+    <t xml:space="preserve">chr2_196673673   </t>
   </si>
   <si>
     <t>chr5_145512380</t>
   </si>
   <si>
-    <t>LARS</t>
+    <t xml:space="preserve">chr3_32510295   </t>
   </si>
   <si>
     <t>chr5_147016688</t>
   </si>
   <si>
-    <t>JAKMIP2</t>
+    <t>UBQLN4P1 intron_variant&amp;non_coding_transcript_variant:UBQLN4P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_148704235   </t>
   </si>
   <si>
     <t>chr5_156021885</t>
   </si>
   <si>
-    <t>SGCD</t>
+    <t>LRRC31 intron_variant:LRRC31 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_169579692   </t>
   </si>
   <si>
     <t>chr5_177469216</t>
   </si>
   <si>
-    <t>FAM153C</t>
+    <t xml:space="preserve">chr4_289382   </t>
   </si>
   <si>
     <t>chr6_20483286</t>
   </si>
   <si>
-    <t>E2F3</t>
+    <t xml:space="preserve">chr4_43390103   </t>
   </si>
   <si>
     <t>chr6_29536155</t>
   </si>
   <si>
+    <t xml:space="preserve">chr4_80327778   </t>
+  </si>
+  <si>
     <t>chr6_32497815</t>
   </si>
   <si>
+    <t>HSP90AA4P intron_variant&amp;non_coding_transcript_variant:HSP90AA4P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_190395389   </t>
+  </si>
+  <si>
     <t>chr6_32610593</t>
   </si>
   <si>
-    <t>HLA-DQA1</t>
+    <t>C5orf38 3_prime_UTR_variant:C5orf38 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_2755354   </t>
   </si>
   <si>
     <t>chr6_43110240</t>
   </si>
   <si>
-    <t>PTK7</t>
+    <t xml:space="preserve">chr5_40958247   </t>
   </si>
   <si>
     <t>chr6_109761352</t>
   </si>
   <si>
-    <t>PPIL6</t>
+    <t xml:space="preserve">chr5_154396783   </t>
   </si>
   <si>
     <t>chr6_118024705</t>
   </si>
   <si>
+    <t>GCNT2 intron_variant&amp;non_coding_transcript_variant:GCNT2 stop_gained:GCNT2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:GCNT2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_10529382   </t>
+  </si>
+  <si>
     <t>chr6_128561076</t>
   </si>
   <si>
-    <t>PTPRK</t>
+    <t xml:space="preserve">chr6_128556807   </t>
   </si>
   <si>
     <t>chr6_137016890</t>
   </si>
   <si>
+    <t xml:space="preserve">chr6_158353068   </t>
+  </si>
+  <si>
     <t>chr7_27135313</t>
   </si>
   <si>
-    <t>HOXA1:HOTAIRM1</t>
+    <t>CHRM2 5_prime_UTR_variant:hsa-mir-490 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_136699607   </t>
   </si>
   <si>
     <t>chr7_48467653</t>
   </si>
   <si>
-    <t>ABCA13</t>
+    <t>DOCK5 intron_variant:DOCK5 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_25237679   </t>
   </si>
   <si>
     <t>chr7_128610492</t>
   </si>
   <si>
-    <t>TNPO3</t>
+    <t>EPB41L4B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_112029859   </t>
   </si>
   <si>
     <t>chr7_151066098</t>
   </si>
   <si>
-    <t>NUB1</t>
+    <t>DIP2C missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_445078   </t>
   </si>
   <si>
     <t>chr8_48870053</t>
   </si>
   <si>
-    <t>PRKDC</t>
+    <t>OR4C46 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_51515993   </t>
   </si>
   <si>
     <t>chr8_98828550</t>
   </si>
   <si>
-    <t>LAPTM4B</t>
+    <t xml:space="preserve">chr11_56216790   </t>
   </si>
   <si>
     <t>chr8_103326837</t>
   </si>
   <si>
-    <t>UBR5</t>
+    <t>MS4A6A intron_variant:MS4A6A intron_variant&amp;NMD_transcript_variant:MS4A6A intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_59945838   </t>
   </si>
   <si>
     <t>chr8_131199665</t>
   </si>
   <si>
-    <t>ASAP1</t>
+    <t>FOLR2 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_71932821   </t>
   </si>
   <si>
     <t>chr8_134270468</t>
   </si>
   <si>
-    <t>NDRG1</t>
+    <t>CHRDL2 intron_variant:CHRDL2 stop_gained:CHRDL2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_74408704   </t>
   </si>
   <si>
     <t>chr9_12709198</t>
   </si>
   <si>
-    <t>TYRP1:RP11-3L8.3</t>
+    <t>CACNA2D4 intron_variant&amp;non_coding_transcript_variant:CACNA2D4 intron_variant:CACNA2D4 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_2023965   </t>
   </si>
   <si>
     <t>chr9_66457019</t>
   </si>
   <si>
+    <t>RERG intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_15262474   </t>
+  </si>
+  <si>
     <t>chr9_66457041</t>
   </si>
   <si>
+    <t xml:space="preserve">chr12_52842430   </t>
+  </si>
+  <si>
     <t>chr9_68431098</t>
   </si>
   <si>
-    <t>RP11-764K9.4</t>
+    <t>RBM19 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_114386912   </t>
   </si>
   <si>
     <t>chr9_100413731</t>
   </si>
   <si>
+    <t>CHAMP1 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_115089273   </t>
+  </si>
+  <si>
     <t>chr10_93987</t>
   </si>
   <si>
-    <t>TUBB8</t>
+    <t>KCNH5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_63179485   </t>
   </si>
   <si>
     <t>chr10_445076</t>
   </si>
   <si>
-    <t>DIP2C</t>
+    <t xml:space="preserve">chr14_106833547   </t>
   </si>
   <si>
     <t>chr10_64425756</t>
   </si>
   <si>
-    <t>ZNF365</t>
+    <t>GRIN2A missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_9934525   </t>
+  </si>
+  <si>
+    <t>GRIN2A</t>
+  </si>
+  <si>
+    <t>missense_variant</t>
   </si>
   <si>
     <t>chr10_135012362</t>
   </si>
   <si>
-    <t>KNDC1</t>
+    <t>ANKRD26P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_46534470   </t>
   </si>
   <si>
     <t>chr11_3712790</t>
   </si>
   <si>
-    <t>NUP98</t>
+    <t>PLCG2 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:PLCG2 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:PLCG2 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_81939002   </t>
   </si>
   <si>
     <t>chr11_12316377</t>
   </si>
   <si>
+    <t>TP53 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TP53 missense_variant</t>
+  </si>
+  <si>
+    <t>chr17_7577539   TP53 SNV non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:missense_variant</t>
+  </si>
+  <si>
+    <t>TP53:TP53</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:missense_variant</t>
+  </si>
+  <si>
     <t>chr11_43401008</t>
   </si>
   <si>
-    <t>TTC17:RP11-484D2.5</t>
+    <t>LLGL1 missense_variant:LLGL1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_18144811   </t>
   </si>
   <si>
     <t>chr11_51515993</t>
   </si>
   <si>
-    <t>OR4C46</t>
+    <t>ASIC2 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_31344629   </t>
   </si>
   <si>
     <t>chr11_90017336</t>
   </si>
   <si>
-    <t>DISC1FP1:RP11-121L10.3</t>
+    <t>ZNF90 intron_variant&amp;non_coding_transcript_variant:ZNF90 intron_variant:ZNF90 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_20225435   </t>
   </si>
   <si>
     <t>chr11_107431636</t>
   </si>
   <si>
-    <t>ALKBH8</t>
+    <t xml:space="preserve">chr19_41595958   </t>
   </si>
   <si>
     <t>chr11_123755105</t>
   </si>
   <si>
-    <t>TMEM225</t>
+    <t>ATP1A3 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_42486240   </t>
   </si>
   <si>
     <t>chr12_49426771</t>
   </si>
   <si>
+    <t>MAMSTR synonymous_variant:MAMSTR 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_49222283   </t>
+  </si>
+  <si>
     <t>chr12_64216544</t>
   </si>
   <si>
+    <t>ZNF135 missense_variant:ZNF135 intron_variant&amp;NMD_transcript_variant:ZNF135 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_58579680   </t>
+  </si>
+  <si>
     <t>chr12_64216547</t>
   </si>
   <si>
+    <t>MROH8 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_35748110   </t>
+  </si>
+  <si>
     <t>chr12_64216551</t>
   </si>
   <si>
+    <t>PMEPA1 intron_variant:PMEPA1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_56234791   </t>
+  </si>
+  <si>
     <t>chr12_102589619</t>
   </si>
   <si>
-    <t>PARPBP</t>
+    <t>CLTCL1 intron_variant&amp;non_coding_transcript_variant:CLTCL1 intron_variant:CLTCL1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_19226576   </t>
+  </si>
+  <si>
+    <t>CLTCL1:CLTCL1:CLTCL1</t>
   </si>
   <si>
     <t>chr13_19985458</t>
   </si>
   <si>
+    <t xml:space="preserve">chrX_64770974   </t>
+  </si>
+  <si>
     <t>chr13_100635007</t>
   </si>
   <si>
+    <t>RBMY2FP intron_variant&amp;non_coding_transcript_variant:RBMY1J intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrY_24457133   </t>
+  </si>
+  <si>
     <t>chr14_55701646</t>
   </si>
   <si>
+    <t xml:space="preserve">chr5_5955251   </t>
+  </si>
+  <si>
     <t>chr14_67691342</t>
   </si>
   <si>
-    <t>FAM71D</t>
+    <t>CYP21A1P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_31975463   </t>
   </si>
   <si>
     <t>chr14_101514903</t>
   </si>
   <si>
+    <t>NUB1 intron_variant:NUB1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_151066098   </t>
+  </si>
+  <si>
     <t>chr15_20453871</t>
   </si>
   <si>
-    <t>RP11-492D6.3</t>
+    <t xml:space="preserve">chr7_26299277   </t>
   </si>
   <si>
     <t>chr15_21136691</t>
   </si>
   <si>
+    <t>AC004381.6 intron_variant:AC004381.6 intron_variant&amp;NMD_transcript_variant:AC004381.6 intron_variant&amp;non_coding_transcript_variant:ERI2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_20826142   </t>
+  </si>
+  <si>
     <t>chr15_65245762</t>
   </si>
   <si>
-    <t>ANKDD1A</t>
+    <t>ZNF525 intron_variant:ZNF525 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_53874163   </t>
   </si>
   <si>
     <t>chr15_69715487</t>
   </si>
   <si>
-    <t>KIF23</t>
+    <t>DISC1FP1 intron_variant&amp;non_coding_transcript_variant:RP11-121L10.3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_90017336   </t>
   </si>
   <si>
     <t>chr15_74888024</t>
   </si>
   <si>
+    <t>SGCD intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_156021885   </t>
+  </si>
+  <si>
     <t>chr16_34777789</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1_229156950   </t>
+  </si>
+  <si>
     <t>chr16_50776313</t>
   </si>
   <si>
-    <t>CYLD:RP11-327F22.1</t>
+    <t xml:space="preserve">chr16_17188392   </t>
   </si>
   <si>
     <t>chr16_53330747</t>
   </si>
   <si>
-    <t>CHD9</t>
+    <t>ALKBH8 intron_variant:ALKBH8 intron_variant&amp;NMD_transcript_variant:ALKBH8 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_107431636   </t>
   </si>
   <si>
     <t>chr17_1779212</t>
   </si>
   <si>
-    <t>RPA1</t>
+    <t xml:space="preserve">chr19_43596250   </t>
   </si>
   <si>
     <t>chr17_1960404</t>
   </si>
   <si>
-    <t>HIC1</t>
+    <t xml:space="preserve">chr1_16890500   </t>
   </si>
   <si>
     <t>chr17_35454702</t>
   </si>
   <si>
-    <t>ACACA</t>
+    <t>TNPO3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_128610492   </t>
   </si>
   <si>
     <t>chr17_40345559</t>
   </si>
   <si>
-    <t>GHDC</t>
+    <t>FERMT1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:FERMT1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_6057797   </t>
   </si>
   <si>
     <t>chr17_46507209</t>
   </si>
   <si>
-    <t>SKAP1</t>
+    <t>NBAS intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_15602043   </t>
   </si>
   <si>
     <t>chr17_71205858</t>
   </si>
   <si>
-    <t>FAM104A</t>
+    <t>NIT2 intron_variant:NIT2 intron_variant&amp;NMD_transcript_variant:NIT2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_100059702   </t>
   </si>
   <si>
     <t>chr19_1045249</t>
   </si>
   <si>
-    <t>ABCA7</t>
+    <t>TJP2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_71836098   </t>
   </si>
   <si>
     <t>chr19_2204355</t>
   </si>
   <si>
+    <t xml:space="preserve">chr13_19985458   </t>
+  </si>
+  <si>
     <t>chr19_7830936</t>
   </si>
   <si>
-    <t>CLEC4M</t>
+    <t>PIK3CD intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_9770690   </t>
   </si>
   <si>
     <t>chr19_8601051</t>
   </si>
   <si>
-    <t>MYO1F</t>
+    <t xml:space="preserve">chr1_12942138   </t>
   </si>
   <si>
     <t>chr19_10291322</t>
   </si>
   <si>
-    <t>DNMT1</t>
+    <t>ST6GALNAC5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ST6GALNAC5 inframe_deletion:ST6GALNAC5 inframe_deletion&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_77334276   </t>
   </si>
   <si>
     <t>chr19_11447769</t>
   </si>
   <si>
-    <t>RAB3D</t>
+    <t>FAM153C synonymous_variant:FAM153C missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_177469216   </t>
   </si>
   <si>
     <t>chr19_36270198</t>
   </si>
   <si>
-    <t>ARHGAP33</t>
+    <t>PRKG1 intron_variant:RSU1P3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_53080207   </t>
   </si>
   <si>
     <t>chr19_38899501</t>
   </si>
   <si>
-    <t>FAM98C</t>
+    <t xml:space="preserve">chr15_21136691   </t>
   </si>
   <si>
     <t>chr19_51919263</t>
   </si>
   <si>
-    <t>SIGLEC10:CTD-2616J11.2</t>
+    <t>TPRXL intron_variant:TPRXL intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_14007029   </t>
   </si>
   <si>
     <t>chr21_36419858</t>
   </si>
   <si>
-    <t>RUNX1</t>
+    <t>SORBS1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_97099062   </t>
   </si>
   <si>
     <t>chrX_38079975</t>
   </si>
   <si>
-    <t>SRPX:TM4SF2</t>
+    <t>CBX6 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_39262240   </t>
   </si>
   <si>
     <t>chrX_107939643</t>
   </si>
   <si>
-    <t>COL4A5</t>
+    <t xml:space="preserve">chr9_68431100   </t>
   </si>
   <si>
     <t>chrX_118679330</t>
   </si>
   <si>
-    <t>CXorf56</t>
+    <t xml:space="preserve">chr12_64216544   </t>
   </si>
   <si>
     <t>chrX_150794063</t>
   </si>
   <si>
-    <t>PASD1:RP11-45D17.1</t>
+    <t xml:space="preserve">chr12_64216547   </t>
   </si>
 </sst>
 </file>
@@ -921,13 +1230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -955,10 +1264,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.028169014084507</v>
@@ -982,12 +1297,15 @@
         <v>0.0178571428571429</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.0416666666666667</v>
@@ -1011,12 +1329,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.024390243902439</v>
@@ -1040,12 +1361,15 @@
         <v>0.0684931506849315</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1069,12 +1393,15 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0.0740740740740741</v>
@@ -1098,12 +1425,15 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0.0212765957446809</v>
@@ -1127,12 +1457,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1156,12 +1489,15 @@
         <v>0.315</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0.0344827586206897</v>
@@ -1185,12 +1521,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1214,12 +1553,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1243,12 +1585,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0.0625</v>
@@ -1272,12 +1617,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0.0434782608695652</v>
@@ -1301,12 +1649,15 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1330,12 +1681,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1359,12 +1713,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1388,12 +1745,15 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>0.125</v>
@@ -1417,12 +1777,15 @@
         <v>0.125</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0.176470588235294</v>
@@ -1446,12 +1809,15 @@
         <v>0.214285714285714</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0.137931034482759</v>
@@ -1475,12 +1841,15 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1504,12 +1873,15 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1533,12 +1905,15 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0.0555555555555556</v>
@@ -1562,12 +1937,15 @@
         <v>0.375</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1591,12 +1969,21 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>0.133333333333333</v>
@@ -1620,12 +2007,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>0.130434782608696</v>
@@ -1649,12 +2039,15 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1678,12 +2071,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1707,12 +2103,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>0.04</v>
@@ -1736,12 +2135,15 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>0.117647058823529</v>
@@ -1765,12 +2167,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>0.153846153846154</v>
@@ -1794,12 +2199,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>0.153846153846154</v>
@@ -1823,12 +2231,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1852,12 +2263,15 @@
         <v>0.0227272727272727</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1881,12 +2295,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1910,12 +2327,15 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1939,12 +2359,15 @@
         <v>0.157894736842105</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <v>0.15</v>
@@ -1968,12 +2391,15 @@
         <v>0.125</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>0.0714285714285714</v>
@@ -1997,12 +2423,15 @@
         <v>0.176470588235294</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2026,12 +2455,15 @@
         <v>0.0352941176470588</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>0.15625</v>
@@ -2055,12 +2487,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B40">
         <v>0.0657894736842105</v>
@@ -2084,12 +2519,15 @@
         <v>0.0491803278688525</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>0.105263157894737</v>
@@ -2113,12 +2551,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>112</v>
+      </c>
+      <c r="J41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>0.087719298245614</v>
@@ -2142,12 +2583,21 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2171,12 +2621,15 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B44">
         <v>0.0273972602739726</v>
@@ -2200,12 +2653,15 @@
         <v>0.0161290322580645</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B45">
         <v>0.15625</v>
@@ -2229,12 +2685,15 @@
         <v>0.04</v>
       </c>
       <c r="I45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B46">
         <v>0.0333333333333333</v>
@@ -2258,12 +2717,15 @@
         <v>0.0294117647058824</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B47">
         <v>0.0416666666666667</v>
@@ -2287,12 +2749,15 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2316,12 +2781,15 @@
         <v>0.41025641025641</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B49">
         <v>0.0689655172413793</v>
@@ -2345,12 +2813,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B50">
         <v>0.142857142857143</v>
@@ -2374,12 +2845,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="B51">
         <v>0.0555555555555556</v>
@@ -2403,12 +2877,15 @@
         <v>0.25</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B52">
         <v>0.170731707317073</v>
@@ -2432,12 +2909,15 @@
         <v>0.181818181818182</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2461,12 +2941,15 @@
         <v>0.304347826086957</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B54">
         <v>0.0967741935483871</v>
@@ -2490,12 +2973,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B55">
         <v>0.0638297872340425</v>
@@ -2519,12 +3005,15 @@
         <v>0.09375</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B56">
         <v>0.0805369127516778</v>
@@ -2548,12 +3037,15 @@
         <v>0.0692307692307692</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B57">
         <v>0.00746268656716418</v>
@@ -2577,12 +3069,15 @@
         <v>0.0108695652173913</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2606,12 +3101,15 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B59">
         <v>0.00793650793650794</v>
@@ -2635,12 +3133,15 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="B60">
         <v>0.04</v>
@@ -2664,12 +3165,21 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J60" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2693,12 +3203,15 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B62">
         <v>0.153846153846154</v>
@@ -2722,12 +3235,15 @@
         <v>0.148148148148148</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B63">
         <v>0.133333333333333</v>
@@ -2751,12 +3267,21 @@
         <v>0.176470588235294</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>175</v>
+      </c>
+      <c r="J63" t="s">
+        <v>176</v>
+      </c>
+      <c r="K63" t="s">
+        <v>177</v>
+      </c>
+      <c r="L63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2780,12 +3305,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>180</v>
+      </c>
+      <c r="J64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2809,12 +3337,15 @@
         <v>0.402439024390244</v>
       </c>
       <c r="I65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2838,12 +3369,15 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>186</v>
+      </c>
+      <c r="J66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="B67">
         <v>0.0476190476190476</v>
@@ -2867,12 +3401,15 @@
         <v>0.2</v>
       </c>
       <c r="I67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>0.0131578947368421</v>
@@ -2896,12 +3433,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="J68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2925,12 +3465,15 @@
         <v>0.1875</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="B70">
         <v>0.0442477876106195</v>
@@ -2954,12 +3497,15 @@
         <v>0.0125</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B71">
         <v>0.0434782608695652</v>
@@ -2983,12 +3529,15 @@
         <v>0.0128205128205128</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="B72">
         <v>0.0434782608695652</v>
@@ -3012,12 +3561,15 @@
         <v>0.0128205128205128</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B73">
         <v>0.117647058823529</v>
@@ -3041,12 +3593,21 @@
         <v>0.2</v>
       </c>
       <c r="I73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J73" t="s">
+        <v>207</v>
+      </c>
+      <c r="K73" t="s">
+        <v>208</v>
+      </c>
+      <c r="L73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3070,12 +3631,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B75">
         <v>0.0677966101694915</v>
@@ -3099,12 +3663,15 @@
         <v>0.0232558139534884</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B76">
         <v>0.235294117647059</v>
@@ -3128,12 +3695,15 @@
         <v>0.315789473684211</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3157,12 +3727,15 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="B78">
         <v>0.352941176470588</v>
@@ -3186,12 +3759,15 @@
         <v>0.416666666666667</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3215,12 +3791,15 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="B80">
         <v>0.0416666666666667</v>
@@ -3244,12 +3823,15 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>225</v>
+      </c>
+      <c r="J80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="B81">
         <v>0.105263157894737</v>
@@ -3273,12 +3855,15 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>228</v>
+      </c>
+      <c r="J81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="B82">
         <v>0.105263157894737</v>
@@ -3302,12 +3887,15 @@
         <v>0.125</v>
       </c>
       <c r="I82" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>231</v>
+      </c>
+      <c r="J82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3331,12 +3919,15 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>234</v>
+      </c>
+      <c r="J83" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="B84">
         <v>0.032258064516129</v>
@@ -3360,12 +3951,15 @@
         <v>0.125</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3389,12 +3983,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3418,12 +4015,15 @@
         <v>0.414634146341463</v>
       </c>
       <c r="I86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="B87">
         <v>0.111111111111111</v>
@@ -3447,12 +4047,15 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="I87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3476,12 +4079,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I88" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="B89">
         <v>0.0869565217391304</v>
@@ -3505,12 +4111,15 @@
         <v>0.025</v>
       </c>
       <c r="I89" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="B90">
         <v>0.0606060606060606</v>
@@ -3534,12 +4143,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="I90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3563,12 +4175,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>254</v>
+      </c>
+      <c r="J91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="B92">
         <v>0.0208333333333333</v>
@@ -3592,12 +4207,15 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>257</v>
+      </c>
+      <c r="J92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="B93">
         <v>0.315789473684211</v>
@@ -3621,12 +4239,15 @@
         <v>0.230769230769231</v>
       </c>
       <c r="I93" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>260</v>
+      </c>
+      <c r="J93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="B94">
         <v>0.117647058823529</v>
@@ -3650,12 +4271,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="B95">
         <v>0.0434782608695652</v>
@@ -3679,12 +4303,15 @@
         <v>0.137931034482759</v>
       </c>
       <c r="I95" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>265</v>
+      </c>
+      <c r="J95" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="B96">
         <v>0.0714285714285714</v>
@@ -3708,12 +4335,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
       <c r="B97">
         <v>0.0178571428571429</v>
@@ -3737,12 +4367,15 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>270</v>
+      </c>
+      <c r="J97" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="B98">
         <v>0.263157894736842</v>
@@ -3766,12 +4399,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I98" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J98" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3795,12 +4431,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I99" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="B100">
         <v>0.104166666666667</v>
@@ -3824,12 +4463,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="B101">
         <v>0.210526315789474</v>
@@ -3853,12 +4495,15 @@
         <v>0.3125</v>
       </c>
       <c r="I101" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>281</v>
+      </c>
+      <c r="J101" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="B102">
         <v>0.08</v>
@@ -3882,12 +4527,15 @@
         <v>0.285714285714286</v>
       </c>
       <c r="I102" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>284</v>
+      </c>
+      <c r="J102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="B103">
         <v>0.0465116279069767</v>
@@ -3911,12 +4559,15 @@
         <v>0.08</v>
       </c>
       <c r="I103" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>287</v>
+      </c>
+      <c r="J103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="B104">
         <v>0.0740740740740741</v>
@@ -3940,12 +4591,15 @@
         <v>0.125</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="B105">
         <v>0.214285714285714</v>
@@ -3969,12 +4623,15 @@
         <v>0.2</v>
       </c>
       <c r="I105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3998,7 +4655,10 @@
         <v>0.125</v>
       </c>
       <c r="I106" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="J106" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
